--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.22697503732601</v>
+        <v>14771.16803242795</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.22697503732601</v>
+        <v>14771.16803242795</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55047.11018978756</v>
+        <v>3848819.417821109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55047.11018978756</v>
+        <v>3848819.417821109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494912323.277755</v>
+        <v>57757628.35429883</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13638.55634405954</v>
+        <v>1329686.202580236</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26690.5569778529</v>
+        <v>2557626.094480273</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39742.32003588867</v>
+        <v>3785518.708804554</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55375.67270618878</v>
+        <v>4811753.305189121</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69802.58926695454</v>
+        <v>5964791.279606101</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84215.86790324244</v>
+        <v>7118910.420924282</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98632.37550563966</v>
+        <v>8273115.237476563</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113048.4525792223</v>
+        <v>9427234.378794743</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128684.6036868172</v>
+        <v>10453468.9751793</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>143112.8715369503</v>
+        <v>11606468.55193793</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157527.6944156625</v>
+        <v>12760587.69325611</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171942.5172943746</v>
+        <v>13914706.83457429</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186357.3401730868</v>
+        <v>15068825.97589249</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200785.8009762769</v>
+        <v>16221863.95030947</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218203.6190958168</v>
+        <v>17019143.23016991</v>
       </c>
     </row>
   </sheetData>
